--- a/data/trans_dic/P44_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en situación de desempleo debido a la COVID-19</t>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,16; 68,09</t>
+          <t>2,56; 37,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 48,43</t>
+          <t>0,96; 8,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 32,04</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 32,3</t>
+          <t>0,31; 3,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 46,45</t>
+          <t>0,58; 5,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,73; 50,51</t>
+          <t>0,92; 7,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 38,6</t>
+          <t>0,54; 5,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,55; 35,59</t>
+          <t>0,86; 5,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,85; 53,96</t>
+          <t>0,98; 4,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 41,71</t>
+          <t>0,36; 3,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 28,69</t>
+          <t>2,52; 19,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,54; 29,45</t>
+          <t>1,24; 5,51</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 2,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 3,02</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 3,27</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,77; 45,72</t>
+          <t>2,18; 7,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,64; 47,52</t>
+          <t>2,55; 7,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,34; 53,26</t>
+          <t>2,33; 7,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,96; 49,84</t>
+          <t>2,33; 6,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,12; 44,13</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 32,59</t>
+          <t>6,12; 12,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,91; 33,54</t>
+          <t>4,37; 9,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,48; 31,81</t>
+          <t>2,5; 5,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,62; 42,02</t>
+          <t>2,92; 6,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,07; 35,71</t>
+          <t>0,53; 3,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,26; 38,2</t>
+          <t>4,95; 9,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,76; 36,15</t>
+          <t>4,08; 7,62</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 5,97</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 5,7</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 2,45</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,99; 58,47</t>
+          <t>2,66; 9,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,77; 54,37</t>
+          <t>1,83; 7,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 36,19</t>
+          <t>0,59; 4,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 50,66</t>
+          <t>0,87; 5,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,85; 42,96</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,59; 44,67</t>
+          <t>2,17; 7,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,3; 41,43</t>
+          <t>3,51; 9,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 37,96</t>
+          <t>1,61; 4,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,72; 44,57</t>
+          <t>1,35; 4,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,68; 43,22</t>
+          <t>0,5; 3,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 34,73</t>
+          <t>2,99; 7,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,98; 37,76</t>
+          <t>3,22; 6,98</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 3,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 3,6</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 2,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,47; 46,96</t>
+          <t>5,02; 8,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,03; 42,38</t>
+          <t>3,73; 9,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,85; 36,09</t>
+          <t>1,28; 5,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,67; 41,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,7; 40,13</t>
+          <t>0,47; 3,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,8; 34,21</t>
+          <t>5,5; 8,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 32,06</t>
+          <t>2,98; 6,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 29,8</t>
+          <t>3,14; 8,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,41; 40,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,32; 35,82</t>
+          <t>0,49; 2,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,47; 31,07</t>
+          <t>5,66; 8,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,9; 31,24</t>
+          <t>3,85; 7,13</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 5,54</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 8,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 6,38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 3,84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 4,1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 2,03</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 8,13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 6,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 4,72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 4,1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 2,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,59; 7,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 5,89</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 3,94</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 3,78</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 1,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24574</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11789</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8588</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10245</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7880</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9449</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12684</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19303</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7898</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32453</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21238</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14374</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>27891</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18143</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5807; 84834</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3251; 27885</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8663</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2237; 21870</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2594; 23673</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2399; 18714</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2283; 24064</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5520; 33031</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8782; 36226</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2292; 22807</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12323; 93658</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9441; 41912</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5524; 28593</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15729; 49110</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5798; 35685</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28633</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>41687</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51918</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>62198</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7683</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62972</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67284</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49115</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65459</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14188</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>91605</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>108970</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>101033</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>127657</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>21871</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14195; 48121</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23789; 68559</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28112; 91247</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37753; 102460</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 32010</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43730; 89407</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43665; 94759</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30787; 73721</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44074; 91285</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5746; 33184</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>67616; 125687</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>78916; 147253</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>71634; 145559</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>97303; 178205</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10157; 52488</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23697</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28696</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15093</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22982</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23642</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44244</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27048</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28408</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12609</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47340</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72940</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>42140</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>51390</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>17592</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12142; 43314</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13117; 52124</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5023; 35404</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9506; 55178</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 24616</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11520; 40406</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26975; 69240</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15126; 46527</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15650; 48100</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4501; 29392</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29474; 73533</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>47745; 103647</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>25457; 67259</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>31743; 81071</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6517; 41781</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>141303</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>82642</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21936</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16576</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>147194</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63697</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40555</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>12623</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>288497</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>146340</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>62491</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>29199</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>106103; 188091</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>54329; 133384</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10994; 43251</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5166; 39367</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>114859; 186207</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41834; 94128</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23970; 65424</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4861; 27344</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>237777; 354190</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>110184; 203947</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>41622; 89862</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>14927; 53418</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>218208</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>164814</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90636</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>93768</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>39487</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>241688</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>184674</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>129401</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>113170</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>47318</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>459895</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>349487</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>220037</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>206938</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>86805</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>168606; 289884</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>122502; 219727</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>60529; 132011</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>63145; 140980</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20327; 69770</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>200421; 292667</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>144947; 230966</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>98887; 168797</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>84687; 146162</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>29831; 74766</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>393648; 544922</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>294009; 414264</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>174192; 276688</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>164525; 265302</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>60231; 126465</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
